--- a/src/main/resources/static/excel/设备信息导入模板.xlsx
+++ b/src/main/resources/static/excel/设备信息导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="899"/>
+    <workbookView windowWidth="27945" windowHeight="11925" tabRatio="899"/>
   </bookViews>
   <sheets>
     <sheet name="安全设备及网络设备清单" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">安全设备及网络设备清单!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">安全设备及网络设备清单!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -72,7 +72,28 @@
     <t>SNMP版本</t>
   </si>
   <si>
+    <t>SNMP端口</t>
+  </si>
+  <si>
     <t>SNMP community</t>
+  </si>
+  <si>
+    <t>安全等级（noAuthNoPriv：1、authNoPriv：2、authPriv：3）</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>认证协议（MD5/SHA）</t>
+  </si>
+  <si>
+    <t>认证密码</t>
+  </si>
+  <si>
+    <t>加密协议（DES/AES）</t>
+  </si>
+  <si>
+    <t>加密密码</t>
   </si>
 </sst>
 </file>
@@ -1130,12 +1151,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1143,14 +1164,23 @@
     <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.8833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.95" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.3666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.2666666666667" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="13.4416666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.775" style="2" customWidth="1"/>
+    <col min="11" max="11" width="49.1416666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.2666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.2666666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.1916666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.2666666666667" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1208,29 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -1189,8 +1240,15 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1200,8 +1258,15 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -1211,8 +1276,15 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1222,8 +1294,15 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -1233,8 +1312,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -1244,8 +1330,15 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1255,8 +1348,15 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1266,8 +1366,15 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1277,8 +1384,15 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1288,10 +1402,17 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1299,8 +1420,15 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
@@ -1310,8 +1438,15 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
@@ -1321,10 +1456,17 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1332,8 +1474,15 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1343,10 +1492,17 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1354,8 +1510,15 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="7"/>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
@@ -1365,10 +1528,17 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1376,8 +1546,15 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -1387,8 +1564,15 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -1398,8 +1582,15 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -1409,17 +1600,17 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:3">
       <c r="A24" s="3"/>
@@ -1504,10 +1695,6 @@
     <row r="44" s="2" customFormat="1" spans="1:3">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:3">
-      <c r="A45" s="3"/>
-      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excel/设备信息导入模板.xlsx
+++ b/src/main/resources/static/excel/设备信息导入模板.xlsx
@@ -10,7 +10,7 @@
     <sheet name="安全设备及网络设备清单" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">安全设备及网络设备清单!$A$1:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">安全设备及网络设备清单!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +69,7 @@
     <t>用途描述</t>
   </si>
   <si>
-    <t>SNMP版本</t>
+    <t>SNMP版本（v2c、v3）</t>
   </si>
   <si>
     <t>SNMP端口</t>
@@ -78,7 +78,7 @@
     <t>SNMP community</t>
   </si>
   <si>
-    <t>安全等级（noAuthNoPriv：1、authNoPriv：2、authPriv：3）</t>
+    <t>安全等级（1、2、3）</t>
   </si>
   <si>
     <t>用户名</t>
@@ -1151,27 +1151,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.6333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.8833333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.95" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.3666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5583333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.4416666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.775" style="2" customWidth="1"/>
-    <col min="11" max="11" width="49.1416666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.5666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.4083333333333" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.2666666666667" style="2" customWidth="1"/>
     <col min="13" max="13" width="20" style="2" customWidth="1"/>
     <col min="14" max="14" width="16.2666666666667" style="2" customWidth="1"/>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1590,23 +1590,9 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+    <row r="22" s="2" customFormat="1" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:3">
       <c r="A23" s="3"/>
@@ -1691,10 +1677,6 @@
     <row r="43" s="2" customFormat="1" spans="1:3">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:3">
-      <c r="A44" s="3"/>
-      <c r="C44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
